--- a/results_cnn_subnetwork_evaluation/summary_selection_rate.xlsx
+++ b/results_cnn_subnetwork_evaluation/summary_selection_rate.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FFC131-8396-45DD-AB2A-1F11B2A6A12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9692D5D-BF1E-40C7-9EF2-4164F16ABF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" tabRatio="596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sumarry" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="3" r:id="rId1"/>
+    <sheet name="summary_0.1-0.3" sheetId="1" r:id="rId2"/>
+    <sheet name="summary_0.4-1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>sigma</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +46,18 @@
   </si>
   <si>
     <t>sr=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr=0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +116,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,11 +515,1511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68875796-7DD7-46D9-A668-8734DDD9E17C}">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="F2" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="125">
+        <v>79.209249214958604</v>
+      </c>
+      <c r="D3" s="125">
+        <v>61.869704755231453</v>
+      </c>
+      <c r="E3" s="125">
+        <v>54.734994824061339</v>
+      </c>
+      <c r="F3" s="125">
+        <v>61.775545924561051</v>
+      </c>
+      <c r="G3" s="125">
+        <v>52.115923724830367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C4" s="125">
+        <v>80.17563589073724</v>
+      </c>
+      <c r="D4" s="125">
+        <v>69.334901974353883</v>
+      </c>
+      <c r="E4" s="125">
+        <v>89.865241048797998</v>
+      </c>
+      <c r="F4" s="125">
+        <v>91.082050882793098</v>
+      </c>
+      <c r="G4" s="125">
+        <v>86.922776148582614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C5" s="125">
+        <v>79.058890359489837</v>
+      </c>
+      <c r="D5" s="125">
+        <v>84.42951928649903</v>
+      </c>
+      <c r="E5" s="125">
+        <v>91.292369887859465</v>
+      </c>
+      <c r="F5" s="125">
+        <v>90.942551406154024</v>
+      </c>
+      <c r="G5" s="125">
+        <v>87.362283987462419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C6" s="125">
+        <v>80.100946663321764</v>
+      </c>
+      <c r="D6" s="125">
+        <v>90.76182319916262</v>
+      </c>
+      <c r="E6" s="125">
+        <v>91.085649529840211</v>
+      </c>
+      <c r="F6" s="125">
+        <v>90.839874624059604</v>
+      </c>
+      <c r="G6" s="125">
+        <v>88.692203219751036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="125">
+        <v>81.049547718117523</v>
+      </c>
+      <c r="D7" s="125">
+        <v>92.340435470895059</v>
+      </c>
+      <c r="E7" s="125">
+        <v>92.021689922346511</v>
+      </c>
+      <c r="F7" s="125">
+        <v>91.75618012843249</v>
+      </c>
+      <c r="G7" s="125">
+        <v>84.276190393803844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="125">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="125">
+        <v>89.927277340922785</v>
+      </c>
+      <c r="D8" s="125">
+        <v>93.10718950855977</v>
+      </c>
+      <c r="E8" s="125">
+        <v>92.275434908606471</v>
+      </c>
+      <c r="F8" s="125">
+        <v>89.310316986594458</v>
+      </c>
+      <c r="G8" s="125">
+        <v>86.685230841097251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="125">
+        <v>93.034541821296031</v>
+      </c>
+      <c r="D9" s="125">
+        <v>92.436878058345357</v>
+      </c>
+      <c r="E9" s="125">
+        <v>89.239393651040828</v>
+      </c>
+      <c r="F9" s="125">
+        <v>88.138726690253947</v>
+      </c>
+      <c r="G9" s="125">
+        <v>79.89448582311843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="125">
+        <v>1</v>
+      </c>
+      <c r="C10" s="125">
+        <v>92.247995224872199</v>
+      </c>
+      <c r="D10" s="125">
+        <v>89.96573788123888</v>
+      </c>
+      <c r="E10" s="125">
+        <v>86.207406638465727</v>
+      </c>
+      <c r="F10" s="125">
+        <v>82.598125127956706</v>
+      </c>
+      <c r="G10" s="125">
+        <v>78.769372284073967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="125"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="125">
+        <v>76.875295922398422</v>
+      </c>
+      <c r="D14" s="125">
+        <v>61.092160543487992</v>
+      </c>
+      <c r="E14" s="125">
+        <v>54.007687494413162</v>
+      </c>
+      <c r="F14" s="125">
+        <v>61.207144237118548</v>
+      </c>
+      <c r="G14" s="125">
+        <v>52.57258857487232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C15" s="125">
+        <v>76.741644247210886</v>
+      </c>
+      <c r="D15" s="125">
+        <v>70.130987292277624</v>
+      </c>
+      <c r="E15" s="125">
+        <v>90.533655135425064</v>
+      </c>
+      <c r="F15" s="125">
+        <v>91.10135900829593</v>
+      </c>
+      <c r="G15" s="125">
+        <v>86.396820041695875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C16" s="125">
+        <v>76.945659852882201</v>
+      </c>
+      <c r="D16" s="125">
+        <v>84.109487682996104</v>
+      </c>
+      <c r="E16" s="125">
+        <v>91.412365158868155</v>
+      </c>
+      <c r="F16" s="125">
+        <v>91.339567527977451</v>
+      </c>
+      <c r="G16" s="125">
+        <v>88.343307468057688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="125">
+        <v>76.57641790442247</v>
+      </c>
+      <c r="D17" s="125">
+        <v>90.319253050055252</v>
+      </c>
+      <c r="E17" s="125">
+        <v>91.636277130424986</v>
+      </c>
+      <c r="F17" s="125">
+        <v>91.551691623629964</v>
+      </c>
+      <c r="G17" s="125">
+        <v>89.263586478545065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="C18" s="125">
+        <v>78.485315616917106</v>
+      </c>
+      <c r="D18" s="125">
+        <v>92.712036147948226</v>
+      </c>
+      <c r="E18" s="125">
+        <v>92.391347099311673</v>
+      </c>
+      <c r="F18" s="125">
+        <v>91.970513009051416</v>
+      </c>
+      <c r="G18" s="125">
+        <v>84.263589362076374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="125">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="125">
+        <v>85.856532784308968</v>
+      </c>
+      <c r="D19" s="125">
+        <v>93.376632439150271</v>
+      </c>
+      <c r="E19" s="125">
+        <v>91.673688065352337</v>
+      </c>
+      <c r="F19" s="125">
+        <v>89.521622159361229</v>
+      </c>
+      <c r="G19" s="125">
+        <v>85.064403671312036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="125">
+        <v>89.821151855408203</v>
+      </c>
+      <c r="D20" s="125">
+        <v>89.684166818052049</v>
+      </c>
+      <c r="E20" s="125">
+        <v>86.734325844802598</v>
+      </c>
+      <c r="F20" s="125">
+        <v>84.456416866351205</v>
+      </c>
+      <c r="G20" s="125">
+        <v>78.547403812605069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="125">
+        <v>1</v>
+      </c>
+      <c r="C21" s="125">
+        <v>87.679847288182998</v>
+      </c>
+      <c r="D21" s="125">
+        <v>86.013546829989892</v>
+      </c>
+      <c r="E21" s="125">
+        <v>83.445191279047989</v>
+      </c>
+      <c r="F21" s="125">
+        <v>80.576786996427302</v>
+      </c>
+      <c r="G21" s="125">
+        <v>75.706831373973827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="125"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="125">
+        <v>73.746404957367005</v>
+      </c>
+      <c r="D25" s="125">
+        <v>61.862588200013263</v>
+      </c>
+      <c r="E25" s="125">
+        <v>54.58201195512072</v>
+      </c>
+      <c r="F25" s="125">
+        <v>62.576608217487461</v>
+      </c>
+      <c r="G25" s="125">
+        <v>52.878836898819777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C26" s="125">
+        <v>74.057197726623954</v>
+      </c>
+      <c r="D26" s="125">
+        <v>69.886977107645109</v>
+      </c>
+      <c r="E26" s="125">
+        <v>89.897006029463924</v>
+      </c>
+      <c r="F26" s="125">
+        <v>91.079680620074569</v>
+      </c>
+      <c r="G26" s="125">
+        <v>87.630498533724349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C27" s="125">
+        <v>73.595117604823571</v>
+      </c>
+      <c r="D27" s="125">
+        <v>84.109424245307778</v>
+      </c>
+      <c r="E27" s="125">
+        <v>91.677794213906111</v>
+      </c>
+      <c r="F27" s="125">
+        <v>91.038694106350405</v>
+      </c>
+      <c r="G27" s="125">
+        <v>86.740300521630815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C28" s="125">
+        <v>73.360000230682502</v>
+      </c>
+      <c r="D28" s="125">
+        <v>89.318535050764595</v>
+      </c>
+      <c r="E28" s="125">
+        <v>92.171160650178635</v>
+      </c>
+      <c r="F28" s="125">
+        <v>91.347306925953802</v>
+      </c>
+      <c r="G28" s="125">
+        <v>89.714334322384559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="125">
+        <v>75.904232158871054</v>
+      </c>
+      <c r="D29" s="125">
+        <v>92.450782446214944</v>
+      </c>
+      <c r="E29" s="125">
+        <v>91.836867100926483</v>
+      </c>
+      <c r="F29" s="125">
+        <v>91.242940394524737</v>
+      </c>
+      <c r="G29" s="125">
+        <v>82.074412408411817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="125">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="125">
+        <v>83.275956827769548</v>
+      </c>
+      <c r="D30" s="125">
+        <v>92.943998938860489</v>
+      </c>
+      <c r="E30" s="125">
+        <v>91.355917150379042</v>
+      </c>
+      <c r="F30" s="125">
+        <v>87.251129623381985</v>
+      </c>
+      <c r="G30" s="125">
+        <v>84.55933009801123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="125">
+        <v>88.722474531209897</v>
+      </c>
+      <c r="D31" s="125">
+        <v>88.610847267998281</v>
+      </c>
+      <c r="E31" s="125">
+        <v>84.909696450661357</v>
+      </c>
+      <c r="F31" s="125">
+        <v>83.024933895045223</v>
+      </c>
+      <c r="G31" s="125">
+        <v>76.780577686658191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="125">
+        <v>1</v>
+      </c>
+      <c r="C32" s="125">
+        <v>87.310201645342943</v>
+      </c>
+      <c r="D32" s="125">
+        <v>85.934630345706552</v>
+      </c>
+      <c r="E32" s="125">
+        <v>81.214906703345193</v>
+      </c>
+      <c r="F32" s="125">
+        <v>77.76865428478331</v>
+      </c>
+      <c r="G32" s="125">
+        <v>75.234791535105543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="D35" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="F35" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="125">
+        <v>71.40097521028153</v>
+      </c>
+      <c r="D36" s="125">
+        <v>61.486223929272747</v>
+      </c>
+      <c r="E36" s="125">
+        <v>54.40722382258209</v>
+      </c>
+      <c r="F36" s="125">
+        <v>62.075041018232568</v>
+      </c>
+      <c r="G36" s="125">
+        <v>51.971718325129693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C37" s="125">
+        <v>71.928730640691825</v>
+      </c>
+      <c r="D37" s="125">
+        <v>69.986770358451778</v>
+      </c>
+      <c r="E37" s="125">
+        <v>88.864390407068115</v>
+      </c>
+      <c r="F37" s="125">
+        <v>90.926178715502161</v>
+      </c>
+      <c r="G37" s="125">
+        <v>85.962865884076294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C38" s="125">
+        <v>71.959688232597188</v>
+      </c>
+      <c r="D38" s="125">
+        <v>81.765522769804832</v>
+      </c>
+      <c r="E38" s="125">
+        <v>90.13238292142087</v>
+      </c>
+      <c r="F38" s="125">
+        <v>90.273191521264607</v>
+      </c>
+      <c r="G38" s="125">
+        <v>85.725493588468183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C39" s="125">
+        <v>71.356407350697964</v>
+      </c>
+      <c r="D39" s="125">
+        <v>88.870422754522082</v>
+      </c>
+      <c r="E39" s="125">
+        <v>91.471396811391102</v>
+      </c>
+      <c r="F39" s="125">
+        <v>91.223574598396169</v>
+      </c>
+      <c r="G39" s="125">
+        <v>88.643932905994006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="C40" s="125">
+        <v>72.90009429147311</v>
+      </c>
+      <c r="D40" s="125">
+        <v>91.986383965259208</v>
+      </c>
+      <c r="E40" s="125">
+        <v>91.585400104383837</v>
+      </c>
+      <c r="F40" s="125">
+        <v>90.623782789355161</v>
+      </c>
+      <c r="G40" s="125">
+        <v>78.816483418253327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="125">
+        <v>0.01</v>
+      </c>
+      <c r="C41" s="125">
+        <v>81.292266080733114</v>
+      </c>
+      <c r="D41" s="125">
+        <v>92.242153190483194</v>
+      </c>
+      <c r="E41" s="125">
+        <v>90.890445995784276</v>
+      </c>
+      <c r="F41" s="125">
+        <v>84.802307978442727</v>
+      </c>
+      <c r="G41" s="125">
+        <v>81.935114778962927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="125">
+        <v>86.433821515180369</v>
+      </c>
+      <c r="D42" s="125">
+        <v>88.188738656908782</v>
+      </c>
+      <c r="E42" s="125">
+        <v>83.985916833190615</v>
+      </c>
+      <c r="F42" s="125">
+        <v>81.751497273621169</v>
+      </c>
+      <c r="G42" s="125">
+        <v>74.120877631582744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="125">
+        <v>1</v>
+      </c>
+      <c r="C43" s="125">
+        <v>83.600209921077749</v>
+      </c>
+      <c r="D43" s="125">
+        <v>83.681006467760682</v>
+      </c>
+      <c r="E43" s="125">
+        <v>80.78759620181259</v>
+      </c>
+      <c r="F43" s="125">
+        <v>77.212611412440125</v>
+      </c>
+      <c r="G43" s="125">
+        <v>73.422688200878326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="D46" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="F46" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="125">
+        <v>70.223260293485808</v>
+      </c>
+      <c r="D47" s="125">
+        <v>59.897046398901963</v>
+      </c>
+      <c r="E47" s="125">
+        <v>53.401534615351338</v>
+      </c>
+      <c r="F47" s="125">
+        <v>61.29098579284134</v>
+      </c>
+      <c r="G47" s="125">
+        <v>51.934716851645199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C48" s="125">
+        <v>71.957075753250464</v>
+      </c>
+      <c r="D48" s="125">
+        <v>69.048936409484512</v>
+      </c>
+      <c r="E48" s="125">
+        <v>85.93018394046085</v>
+      </c>
+      <c r="F48" s="125">
+        <v>88.449652101950136</v>
+      </c>
+      <c r="G48" s="125">
+        <v>84.327499949538193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C49" s="125">
+        <v>71.497417797731813</v>
+      </c>
+      <c r="D49" s="125">
+        <v>78.062036292124773</v>
+      </c>
+      <c r="E49" s="125">
+        <v>87.036733305074733</v>
+      </c>
+      <c r="F49" s="125">
+        <v>87.65879750978236</v>
+      </c>
+      <c r="G49" s="125">
+        <v>82.296715369510125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C50" s="125">
+        <v>70.192146990890919</v>
+      </c>
+      <c r="D50" s="125">
+        <v>87.451217859439382</v>
+      </c>
+      <c r="E50" s="125">
+        <v>89.084657595077232</v>
+      </c>
+      <c r="F50" s="125">
+        <v>89.22967615060108</v>
+      </c>
+      <c r="G50" s="125">
+        <v>86.161085591859219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="C51" s="125">
+        <v>72.392517813014535</v>
+      </c>
+      <c r="D51" s="125">
+        <v>89.575573029755162</v>
+      </c>
+      <c r="E51" s="125">
+        <v>89.816353659345395</v>
+      </c>
+      <c r="F51" s="125">
+        <v>89.221567660619911</v>
+      </c>
+      <c r="G51" s="125">
+        <v>73.513352191627959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="125">
+        <v>0.01</v>
+      </c>
+      <c r="C52" s="125">
+        <v>77.354659930737583</v>
+      </c>
+      <c r="D52" s="125">
+        <v>90.27680170243687</v>
+      </c>
+      <c r="E52" s="125">
+        <v>88.440580512518864</v>
+      </c>
+      <c r="F52" s="125">
+        <v>79.708100127740437</v>
+      </c>
+      <c r="G52" s="125">
+        <v>78.484127602026533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="125">
+        <v>81.105297912034985</v>
+      </c>
+      <c r="D53" s="125">
+        <v>83.602591717921442</v>
+      </c>
+      <c r="E53" s="125">
+        <v>80.226391808464314</v>
+      </c>
+      <c r="F53" s="125">
+        <v>77.84593292329518</v>
+      </c>
+      <c r="G53" s="125">
+        <v>69.880910157815677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="125">
+        <v>1</v>
+      </c>
+      <c r="C54" s="125">
+        <v>77.845650337228975</v>
+      </c>
+      <c r="D54" s="125">
+        <v>80.396739302819796</v>
+      </c>
+      <c r="E54" s="125">
+        <v>78.761782829724581</v>
+      </c>
+      <c r="F54" s="125">
+        <v>75.269030585616377</v>
+      </c>
+      <c r="G54" s="125">
+        <v>69.947513963500271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="125"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="125">
+        <v>0.05</v>
+      </c>
+      <c r="D57" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="125">
+        <v>0.15</v>
+      </c>
+      <c r="F57" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="G57" s="125">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="125">
+        <v>63.510151471898538</v>
+      </c>
+      <c r="D58" s="125">
+        <v>57.553237196400197</v>
+      </c>
+      <c r="E58" s="125">
+        <v>53.779444458862102</v>
+      </c>
+      <c r="F58" s="125">
+        <v>59.999630907995183</v>
+      </c>
+      <c r="G58" s="125">
+        <v>49.007534667254909</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C59" s="125">
+        <v>62.966997984411627</v>
+      </c>
+      <c r="D59" s="125">
+        <v>63.869900835359012</v>
+      </c>
+      <c r="E59" s="125">
+        <v>72.471682280988574</v>
+      </c>
+      <c r="F59" s="125">
+        <v>76.048062699504328</v>
+      </c>
+      <c r="G59" s="125">
+        <v>73.126468798749698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C60" s="125">
+        <v>62.920175203361048</v>
+      </c>
+      <c r="D60" s="125">
+        <v>71.375951925766387</v>
+      </c>
+      <c r="E60" s="125">
+        <v>74.654198277378399</v>
+      </c>
+      <c r="F60" s="125">
+        <v>77.159467930806784</v>
+      </c>
+      <c r="G60" s="125">
+        <v>71.616922868421597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C61" s="125">
+        <v>63.424995025908522</v>
+      </c>
+      <c r="D61" s="125">
+        <v>72.528412875543907</v>
+      </c>
+      <c r="E61" s="125">
+        <v>76.542865134358138</v>
+      </c>
+      <c r="F61" s="125">
+        <v>77.656213865748541</v>
+      </c>
+      <c r="G61" s="125">
+        <v>77.69327877692136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="C62" s="125">
+        <v>64.968999155125331</v>
+      </c>
+      <c r="D62" s="125">
+        <v>79.274774579941578</v>
+      </c>
+      <c r="E62" s="125">
+        <v>78.086459802132083</v>
+      </c>
+      <c r="F62" s="125">
+        <v>79.968240786396649</v>
+      </c>
+      <c r="G62" s="125">
+        <v>69.114784729971703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="125">
+        <v>0.01</v>
+      </c>
+      <c r="C63" s="125">
+        <v>68.08411837472643</v>
+      </c>
+      <c r="D63" s="125">
+        <v>81.771341735943508</v>
+      </c>
+      <c r="E63" s="125">
+        <v>78.75740562922978</v>
+      </c>
+      <c r="F63" s="125">
+        <v>71.470191495312804</v>
+      </c>
+      <c r="G63" s="125">
+        <v>72.311040752947704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="125">
+        <v>0.1</v>
+      </c>
+      <c r="C64" s="125">
+        <v>65.090989829785144</v>
+      </c>
+      <c r="D64" s="125">
+        <v>71.895581565007788</v>
+      </c>
+      <c r="E64" s="125">
+        <v>73.12156102849795</v>
+      </c>
+      <c r="F64" s="125">
+        <v>72.823023267213969</v>
+      </c>
+      <c r="G64" s="125">
+        <v>63.899312854494127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="125">
+        <v>1</v>
+      </c>
+      <c r="C65" s="125">
+        <v>63.236625461004557</v>
+      </c>
+      <c r="D65" s="125">
+        <v>66.471157478294231</v>
+      </c>
+      <c r="E65" s="125">
+        <v>68.941265351199689</v>
+      </c>
+      <c r="F65" s="125">
+        <v>68.141575619166261</v>
+      </c>
+      <c r="G65" s="125">
+        <v>65.279393997064574</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A14:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:G10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:G10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:G21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:G21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:G32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:G32">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G32">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:G43">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:G43">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:G43">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:G54">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:G54">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:G54">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:G65">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:G65">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:G65">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1119,4 +2753,745 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D797DD3D-0D28-4952-8A5D-62303F7013D2}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="123">
+        <v>79.209249214958604</v>
+      </c>
+      <c r="D3" s="99">
+        <v>61.869704755231453</v>
+      </c>
+      <c r="E3" s="75">
+        <v>54.734994824061339</v>
+      </c>
+      <c r="F3" s="51">
+        <v>61.775545924561051</v>
+      </c>
+      <c r="G3" s="27">
+        <v>52.115923724830367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C4" s="120">
+        <v>80.17563589073724</v>
+      </c>
+      <c r="D4" s="96">
+        <v>69.334901974353883</v>
+      </c>
+      <c r="E4" s="72">
+        <v>89.865241048797998</v>
+      </c>
+      <c r="F4" s="48">
+        <v>91.082050882793098</v>
+      </c>
+      <c r="G4" s="24">
+        <v>86.922776148582614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C5" s="117">
+        <v>79.058890359489837</v>
+      </c>
+      <c r="D5" s="93">
+        <v>84.42951928649903</v>
+      </c>
+      <c r="E5" s="69">
+        <v>91.292369887859465</v>
+      </c>
+      <c r="F5" s="45">
+        <v>90.942551406154024</v>
+      </c>
+      <c r="G5" s="21">
+        <v>87.362283987462419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C6" s="114">
+        <v>80.100946663321764</v>
+      </c>
+      <c r="D6" s="90">
+        <v>90.76182319916262</v>
+      </c>
+      <c r="E6" s="66">
+        <v>91.085649529840211</v>
+      </c>
+      <c r="F6" s="42">
+        <v>90.839874624059604</v>
+      </c>
+      <c r="G6" s="18">
+        <v>88.692203219751036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="111">
+        <v>81.049547718117523</v>
+      </c>
+      <c r="D7" s="87">
+        <v>92.340435470895059</v>
+      </c>
+      <c r="E7" s="63">
+        <v>92.021689922346511</v>
+      </c>
+      <c r="F7" s="39">
+        <v>91.75618012843249</v>
+      </c>
+      <c r="G7" s="15">
+        <v>84.276190393803844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="108">
+        <v>89.927277340922785</v>
+      </c>
+      <c r="D8" s="84">
+        <v>93.10718950855977</v>
+      </c>
+      <c r="E8" s="60">
+        <v>92.275434908606471</v>
+      </c>
+      <c r="F8" s="36">
+        <v>89.310316986594458</v>
+      </c>
+      <c r="G8" s="12">
+        <v>86.685230841097251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="105">
+        <v>93.034541821296031</v>
+      </c>
+      <c r="D9" s="81">
+        <v>92.436878058345357</v>
+      </c>
+      <c r="E9" s="57">
+        <v>89.239393651040828</v>
+      </c>
+      <c r="F9" s="33">
+        <v>88.138726690253947</v>
+      </c>
+      <c r="G9" s="9">
+        <v>79.89448582311843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="102">
+        <v>92.247995224872199</v>
+      </c>
+      <c r="D10" s="78">
+        <v>89.96573788123888</v>
+      </c>
+      <c r="E10" s="54">
+        <v>86.207406638465727</v>
+      </c>
+      <c r="F10" s="30">
+        <v>82.598125127956706</v>
+      </c>
+      <c r="G10" s="6">
+        <v>78.769372284073967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.15</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="124">
+        <v>76.875295922398422</v>
+      </c>
+      <c r="D14" s="100">
+        <v>61.092160543487992</v>
+      </c>
+      <c r="E14" s="76">
+        <v>54.007687494413162</v>
+      </c>
+      <c r="F14" s="52">
+        <v>61.207144237118548</v>
+      </c>
+      <c r="G14" s="28">
+        <v>52.57258857487232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C15" s="121">
+        <v>76.741644247210886</v>
+      </c>
+      <c r="D15" s="97">
+        <v>70.130987292277624</v>
+      </c>
+      <c r="E15" s="73">
+        <v>90.533655135425064</v>
+      </c>
+      <c r="F15" s="49">
+        <v>91.10135900829593</v>
+      </c>
+      <c r="G15" s="25">
+        <v>86.396820041695875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C16" s="118">
+        <v>76.945659852882201</v>
+      </c>
+      <c r="D16" s="94">
+        <v>84.109487682996104</v>
+      </c>
+      <c r="E16" s="70">
+        <v>91.412365158868155</v>
+      </c>
+      <c r="F16" s="46">
+        <v>91.339567527977451</v>
+      </c>
+      <c r="G16" s="22">
+        <v>88.343307468057688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17" s="115">
+        <v>76.57641790442247</v>
+      </c>
+      <c r="D17" s="91">
+        <v>90.319253050055252</v>
+      </c>
+      <c r="E17" s="67">
+        <v>91.636277130424986</v>
+      </c>
+      <c r="F17" s="43">
+        <v>91.551691623629964</v>
+      </c>
+      <c r="G17" s="19">
+        <v>89.263586478545065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18">
+        <v>1E-3</v>
+      </c>
+      <c r="C18" s="112">
+        <v>78.485315616917106</v>
+      </c>
+      <c r="D18" s="88">
+        <v>92.712036147948226</v>
+      </c>
+      <c r="E18" s="64">
+        <v>92.391347099311673</v>
+      </c>
+      <c r="F18" s="40">
+        <v>91.970513009051416</v>
+      </c>
+      <c r="G18" s="16">
+        <v>84.263589362076374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="109">
+        <v>85.856532784308968</v>
+      </c>
+      <c r="D19" s="85">
+        <v>93.376632439150271</v>
+      </c>
+      <c r="E19" s="61">
+        <v>91.673688065352337</v>
+      </c>
+      <c r="F19" s="37">
+        <v>89.521622159361229</v>
+      </c>
+      <c r="G19" s="13">
+        <v>85.064403671312036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="106">
+        <v>89.821151855408203</v>
+      </c>
+      <c r="D20" s="82">
+        <v>89.684166818052049</v>
+      </c>
+      <c r="E20" s="58">
+        <v>86.734325844802598</v>
+      </c>
+      <c r="F20" s="34">
+        <v>84.456416866351205</v>
+      </c>
+      <c r="G20" s="10">
+        <v>78.547403812605069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="103">
+        <v>87.679847288182998</v>
+      </c>
+      <c r="D21" s="79">
+        <v>86.013546829989892</v>
+      </c>
+      <c r="E21" s="55">
+        <v>83.445191279047989</v>
+      </c>
+      <c r="F21" s="31">
+        <v>80.576786996427302</v>
+      </c>
+      <c r="G21" s="7">
+        <v>75.706831373973827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24">
+        <v>0.05</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>0.15</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="125">
+        <v>73.746404957367005</v>
+      </c>
+      <c r="D25" s="101">
+        <v>61.862588200013263</v>
+      </c>
+      <c r="E25" s="77">
+        <v>54.58201195512072</v>
+      </c>
+      <c r="F25" s="53">
+        <v>62.576608217487461</v>
+      </c>
+      <c r="G25" s="29">
+        <v>52.878836898819777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C26" s="122">
+        <v>74.057197726623954</v>
+      </c>
+      <c r="D26" s="98">
+        <v>69.886977107645109</v>
+      </c>
+      <c r="E26" s="74">
+        <v>89.897006029463924</v>
+      </c>
+      <c r="F26" s="50">
+        <v>91.079680620074569</v>
+      </c>
+      <c r="G26" s="26">
+        <v>87.630498533724349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C27" s="119">
+        <v>73.595117604823571</v>
+      </c>
+      <c r="D27" s="95">
+        <v>84.109424245307778</v>
+      </c>
+      <c r="E27" s="71">
+        <v>91.677794213906111</v>
+      </c>
+      <c r="F27" s="47">
+        <v>91.038694106350405</v>
+      </c>
+      <c r="G27" s="23">
+        <v>86.740300521630815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C28" s="116">
+        <v>73.360000230682502</v>
+      </c>
+      <c r="D28" s="92">
+        <v>89.318535050764595</v>
+      </c>
+      <c r="E28" s="68">
+        <v>92.171160650178635</v>
+      </c>
+      <c r="F28" s="44">
+        <v>91.347306925953802</v>
+      </c>
+      <c r="G28" s="20">
+        <v>89.714334322384559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29">
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="113">
+        <v>75.904232158871054</v>
+      </c>
+      <c r="D29" s="89">
+        <v>92.450782446214944</v>
+      </c>
+      <c r="E29" s="65">
+        <v>91.836867100926483</v>
+      </c>
+      <c r="F29" s="41">
+        <v>91.242940394524737</v>
+      </c>
+      <c r="G29" s="17">
+        <v>82.074412408411817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="110">
+        <v>83.275956827769548</v>
+      </c>
+      <c r="D30" s="86">
+        <v>92.943998938860489</v>
+      </c>
+      <c r="E30" s="62">
+        <v>91.355917150379042</v>
+      </c>
+      <c r="F30" s="38">
+        <v>87.251129623381985</v>
+      </c>
+      <c r="G30" s="14">
+        <v>84.55933009801123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="107">
+        <v>88.722474531209897</v>
+      </c>
+      <c r="D31" s="83">
+        <v>88.610847267998281</v>
+      </c>
+      <c r="E31" s="59">
+        <v>84.909696450661357</v>
+      </c>
+      <c r="F31" s="35">
+        <v>83.024933895045223</v>
+      </c>
+      <c r="G31" s="11">
+        <v>76.780577686658191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="104">
+        <v>87.310201645342943</v>
+      </c>
+      <c r="D32" s="80">
+        <v>85.934630345706552</v>
+      </c>
+      <c r="E32" s="56">
+        <v>81.214906703345193</v>
+      </c>
+      <c r="F32" s="32">
+        <v>77.76865428478331</v>
+      </c>
+      <c r="G32" s="8">
+        <v>75.234791535105543</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A14:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:G10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:G10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:G10">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:G21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:G21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:G21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:G32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:G32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G32">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>